--- a/PWL_POS/public/Template_Barang.xlsx
+++ b/PWL_POS/public/Template_Barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_2025\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9711FD7F-B83D-4495-8456-6497CC709A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A24C31-E85E-4ED7-84AD-6EB994EA99CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
